--- a/groupby-excel-demo.xlsx
+++ b/groupby-excel-demo.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27715"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E670AEF-74BA-4418-A3D9-007E06575BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6029074E-945E-4B97-AB67-0FBCB8337F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="example-1" sheetId="6" r:id="rId1"/>
-    <sheet name="data" sheetId="1" r:id="rId2"/>
-    <sheet name="example-2" sheetId="7" r:id="rId3"/>
-    <sheet name="example-3" sheetId="8" r:id="rId4"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="example-1" sheetId="6" r:id="rId2"/>
+    <sheet name="example-2" sheetId="9" r:id="rId3"/>
+    <sheet name="example-3" sheetId="11" r:id="rId4"/>
+    <sheet name="example-4" sheetId="7" r:id="rId5"/>
+    <sheet name="example-5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="39">
   <si>
     <t>Electronics</t>
   </si>
@@ -233,18 +235,6 @@
       <t xml:space="preserve"> = Group by a category/dimension</t>
     </r>
   </si>
-  <si>
-    <t>Accessories Total</t>
-  </si>
-  <si>
-    <t>Clothing Total</t>
-  </si>
-  <si>
-    <t>Electronics Total</t>
-  </si>
-  <si>
-    <t>Average of sales</t>
-  </si>
 </sst>
 </file>
 
@@ -252,7 +242,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -310,17 +300,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7407,7 +7397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC488D62-CD41-4DEC-B2DE-A5C7430470B0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC488D62-CD41-4DEC-B2DE-A5C7430470B0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:D7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7466,28 +7456,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BD9256A-3C58-4D58-AD71-91BB91FDC4EC}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="F2:I36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A459FC8-2B8A-42ED-B550-A9069833EB73}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="2"/>
@@ -7495,139 +7471,36 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="4"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="34">
+  <rowItems count="4">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
       <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Sum of sales" fld="7" baseField="4" baseItem="0" numFmtId="5"/>
-    <dataField name="Average of sales" fld="7" subtotal="average" baseField="3" baseItem="3" numFmtId="165"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7652,8 +7525,8 @@
     <tableColumn id="4" xr3:uid="{C9D68273-E25D-4940-8BF1-147892CDF5E9}" name="product_name"/>
     <tableColumn id="6" xr3:uid="{0F8CA43B-42F0-4FFA-B96C-933234C4F89D}" name="unit_price"/>
     <tableColumn id="7" xr3:uid="{DFE07B68-691D-46AE-B4D9-95C90AAE8A24}" name="quantity"/>
-    <tableColumn id="12" xr3:uid="{A5B1C6DA-898B-452C-9522-F9AB955AE2BC}" name="sales" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{F0E8300E-6EA6-48DD-BFBD-EC7C0D88BE59}" name="order_date" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A5B1C6DA-898B-452C-9522-F9AB955AE2BC}" name="sales" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F0E8300E-6EA6-48DD-BFBD-EC7C0D88BE59}" name="order_date" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{6FDA4A37-8A23-4118-A961-B9189EDEF109}" name="customer_age"/>
     <tableColumn id="10" xr3:uid="{6B62D05C-E0B1-4F8D-9D27-D6CB730D17C8}" name="customer_gender"/>
     <tableColumn id="11" xr3:uid="{89096C6A-08B4-4319-88D2-D50B97AC6879}" name="country"/>
@@ -7978,116 +7851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4673539-6FF9-4154-86F9-0E6DB3FFFE71}">
-  <dimension ref="A3:F14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="C3:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.86328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4">
-        <v>280575</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>209136</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4">
-        <v>731790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C11" t="str" cm="1">
-        <f t="array" ref="C11:D14">_xlfn.GROUPBY(sales[category], sales[sales], _xleta.SUM)</f>
-        <v>Accessories</v>
-      </c>
-      <c r="D11" s="7">
-        <v>280575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C12" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="D12" s="7">
-        <v>209136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C13" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="D13" s="7">
-        <v>242079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C14" t="str">
-        <v>Total</v>
-      </c>
-      <c r="D14" s="7">
-        <v>731790</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27152,7 +26920,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4673539-6FF9-4154-86F9-0E6DB3FFFE71}">
+  <dimension ref="A3:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="C3:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>280575</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>209136</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>242079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11:D14">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM)</f>
+        <v>Accessories</v>
+      </c>
+      <c r="D11" s="7">
+        <v>280575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C12" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="D12" s="7">
+        <v>209136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C13" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="D13" s="7">
+        <v>242079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C14" t="str">
+        <v>Total</v>
+      </c>
+      <c r="D14" s="7">
+        <v>731790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA8D9AA-6A83-414B-8C20-09FF7463E502}">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" ref="E3:F7">_xlfn.GROUPBY(sales[[#All],[category]], sales[[#All],[sales]], _xleta.SUM, 3)</f>
+        <v>category</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <v>sales</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>280575</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F4" s="7">
+        <v>280575</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>209136</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F5" s="7">
+        <v>209136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>242079</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F6" s="7">
+        <v>242079</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>731790</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Total</v>
+      </c>
+      <c r="F7" s="7">
+        <v>731790</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BE988-B521-40AA-9750-3DBE830DC2FA}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E7" sqref="D1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:B8">_xlfn.GROUPBY(sales[[#All],[country]], sales[[#All],[customer_age]], _xleta.STDEV.S, 3)</f>
+        <v>country</v>
+      </c>
+      <c r="B1" t="str">
+        <v>customer_age</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="B2">
+        <v>13.459294574448059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="B3">
+        <v>13.855503899616764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <v>France</v>
+      </c>
+      <c r="B4">
+        <v>14.135204715379224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="B5">
+        <v>13.461816846938337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <v>UK</v>
+      </c>
+      <c r="B6">
+        <v>13.521172855363378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
+        <v>USA</v>
+      </c>
+      <c r="B7">
+        <v>13.943117783183645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B8">
+        <v>13.74982601456694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A43CDF-18E9-4F72-8E10-6AD7D64CDA23}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -27160,10 +27223,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -27177,7 +27240,7 @@
       <c r="C1" t="str">
         <v>quantity</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="7" t="str">
         <v>sales</v>
       </c>
     </row>
@@ -27191,7 +27254,7 @@
       <c r="C2">
         <v>36</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>19000</v>
       </c>
     </row>
@@ -27205,7 +27268,7 @@
       <c r="C3">
         <v>58</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>29196</v>
       </c>
     </row>
@@ -27219,7 +27282,7 @@
       <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>25339</v>
       </c>
     </row>
@@ -27233,7 +27296,7 @@
       <c r="C5">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>25252</v>
       </c>
     </row>
@@ -27247,7 +27310,7 @@
       <c r="C6">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>16664</v>
       </c>
     </row>
@@ -27261,7 +27324,7 @@
       <c r="C7">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>22047</v>
       </c>
     </row>
@@ -27275,7 +27338,7 @@
       <c r="C8">
         <v>38</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>21784</v>
       </c>
     </row>
@@ -27289,7 +27352,7 @@
       <c r="C9">
         <v>81</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>44221</v>
       </c>
     </row>
@@ -27303,7 +27366,7 @@
       <c r="C10">
         <v>67</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>40109</v>
       </c>
     </row>
@@ -27317,7 +27380,7 @@
       <c r="C11">
         <v>60</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>36963</v>
       </c>
     </row>
@@ -27331,7 +27394,7 @@
       <c r="C12">
         <v>34</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>12924</v>
       </c>
     </row>
@@ -27345,7 +27408,7 @@
       <c r="C13">
         <v>33</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>20325</v>
       </c>
     </row>
@@ -27359,7 +27422,7 @@
       <c r="C14">
         <v>34</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>20474</v>
       </c>
     </row>
@@ -27373,7 +27436,7 @@
       <c r="C15">
         <v>59</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>39230</v>
       </c>
     </row>
@@ -27387,7 +27450,7 @@
       <c r="C16">
         <v>42</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>23304</v>
       </c>
     </row>
@@ -27401,7 +27464,7 @@
       <c r="C17">
         <v>37</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>16927</v>
       </c>
     </row>
@@ -27415,7 +27478,7 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>17667</v>
       </c>
     </row>
@@ -27429,7 +27492,7 @@
       <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>14032</v>
       </c>
     </row>
@@ -27443,7 +27506,7 @@
       <c r="C20">
         <v>49</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>26417</v>
       </c>
     </row>
@@ -27457,7 +27520,7 @@
       <c r="C21">
         <v>33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>17836</v>
       </c>
     </row>
@@ -27471,7 +27534,7 @@
       <c r="C22">
         <v>43</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>24408</v>
       </c>
     </row>
@@ -27485,7 +27548,7 @@
       <c r="C23">
         <v>31</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>14713</v>
       </c>
     </row>
@@ -27499,7 +27562,7 @@
       <c r="C24">
         <v>31</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>21740</v>
       </c>
     </row>
@@ -27513,7 +27576,7 @@
       <c r="C25">
         <v>58</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>34558</v>
       </c>
     </row>
@@ -27527,7 +27590,7 @@
       <c r="C26">
         <v>49</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>28657</v>
       </c>
     </row>
@@ -27541,7 +27604,7 @@
       <c r="C27">
         <v>38</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>24014</v>
       </c>
     </row>
@@ -27555,7 +27618,7 @@
       <c r="C28">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>21683</v>
       </c>
     </row>
@@ -27569,7 +27632,7 @@
       <c r="C29">
         <v>44</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>20746</v>
       </c>
     </row>
@@ -27583,7 +27646,7 @@
       <c r="C30">
         <v>49</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>28717</v>
       </c>
     </row>
@@ -27597,7 +27660,7 @@
       <c r="C31">
         <v>31</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>22843</v>
       </c>
     </row>
@@ -27611,7 +27674,7 @@
       <c r="C32">
         <v>1287</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>731790</v>
       </c>
     </row>
@@ -27620,20 +27683,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1981D1F-6EA1-4707-9924-DFD2369DFF2E}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="4" width="14.265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:D36">_xlfn.GROUPBY(sales[[#All],[category]:[product_name]], sales[[#All],[sales]:[sales]], _xlfn.HSTACK(_xleta.SUM, _xleta.AVERAGE), ,2 )</f>
+        <f t="array" ref="A1:D33">_xlfn.GROUPBY(sales[[#All],[category]:[product_name]], sales[[#All],[sales]:[sales]], _xlfn.HSTACK(_xleta.SUM, _xleta.AVERAGE), 3)</f>
         <v/>
       </c>
       <c r="B1" t="str">
@@ -27646,7 +27709,7 @@
         <v>AVERAGE</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <v>category</v>
       </c>
@@ -27659,20 +27722,8 @@
       <c r="D2" s="7" t="str">
         <v>sales</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <v>Accessories</v>
       </c>
@@ -27685,20 +27736,8 @@
       <c r="D3" s="7">
         <v>1187.5</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4">
-        <v>19000</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1187.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <v>Accessories</v>
       </c>
@@ -27711,17 +27750,8 @@
       <c r="D4" s="7">
         <v>1536.6315789473683</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4">
-        <v>29196</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1536.6315789473683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <v>Accessories</v>
       </c>
@@ -27734,17 +27764,8 @@
       <c r="D5" s="7">
         <v>1333.6315789473683</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25339</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1333.6315789473683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <v>Accessories</v>
       </c>
@@ -27757,17 +27778,8 @@
       <c r="D6" s="7">
         <v>1485.4117647058824</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4">
-        <v>25252</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1485.4117647058824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <v>Accessories</v>
       </c>
@@ -27780,17 +27792,8 @@
       <c r="D7" s="7">
         <v>1110.9333333333334</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4">
-        <v>16664</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1110.9333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <v>Accessories</v>
       </c>
@@ -27803,17 +27806,8 @@
       <c r="D8" s="7">
         <v>1224.8333333333333</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4">
-        <v>22047</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1224.8333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <v>Accessories</v>
       </c>
@@ -27826,17 +27820,8 @@
       <c r="D9" s="7">
         <v>1556</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4">
-        <v>21784</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <v>Accessories</v>
       </c>
@@ -27849,17 +27834,8 @@
       <c r="D10" s="7">
         <v>1524.8620689655172</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4">
-        <v>44221</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1524.8620689655172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <v>Accessories</v>
       </c>
@@ -27872,17 +27848,8 @@
       <c r="D11" s="7">
         <v>1485.5185185185185</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4">
-        <v>40109</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1485.5185185185185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <v>Accessories</v>
       </c>
@@ -27895,571 +27862,298 @@
       <c r="D12" s="7">
         <v>1478.52</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4">
-        <v>36963</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1478.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
-        <v>Accessories</v>
+        <v>Clothing</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Camera</v>
       </c>
       <c r="C13" s="7">
-        <v>280575</v>
+        <v>12924</v>
       </c>
       <c r="D13" s="7">
-        <v>1409.9246231155778</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="4">
-        <v>280575</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1409.9246231155778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>923.14285714285711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <v>Clothing</v>
       </c>
       <c r="B14" t="str">
-        <v>Camera</v>
+        <v>Headphones</v>
       </c>
       <c r="C14" s="7">
-        <v>12924</v>
+        <v>20325</v>
       </c>
       <c r="D14" s="7">
-        <v>923.14285714285711</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="4">
-        <v>12924</v>
-      </c>
-      <c r="I14" s="7">
-        <v>923.14285714285711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1847.7272727272727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <v>Clothing</v>
       </c>
       <c r="B15" t="str">
-        <v>Headphones</v>
+        <v>Jacket</v>
       </c>
       <c r="C15" s="7">
-        <v>20325</v>
+        <v>20474</v>
       </c>
       <c r="D15" s="7">
-        <v>1847.7272727272727</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="4">
-        <v>20325</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1847.7272727272727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1574.9230769230769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <v>Clothing</v>
       </c>
       <c r="B16" t="str">
-        <v>Jacket</v>
+        <v>Laptop</v>
       </c>
       <c r="C16" s="7">
-        <v>20474</v>
+        <v>39230</v>
       </c>
       <c r="D16" s="7">
-        <v>1574.9230769230769</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4">
-        <v>20474</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1574.9230769230769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1705.6521739130435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <v>Clothing</v>
       </c>
       <c r="B17" t="str">
-        <v>Laptop</v>
+        <v>Shoes</v>
       </c>
       <c r="C17" s="7">
-        <v>39230</v>
+        <v>23304</v>
       </c>
       <c r="D17" s="7">
-        <v>1705.6521739130435</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="4">
-        <v>39230</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1705.6521739130435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1456.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <v>Clothing</v>
       </c>
       <c r="B18" t="str">
-        <v>Shoes</v>
+        <v>Smartphone</v>
       </c>
       <c r="C18" s="7">
-        <v>23304</v>
+        <v>16927</v>
       </c>
       <c r="D18" s="7">
-        <v>1456.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="4">
-        <v>23304</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1456.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1057.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <v>Clothing</v>
       </c>
       <c r="B19" t="str">
-        <v>Smartphone</v>
+        <v>Sunglasses</v>
       </c>
       <c r="C19" s="7">
-        <v>16927</v>
+        <v>17667</v>
       </c>
       <c r="D19" s="7">
-        <v>1057.9375</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4">
-        <v>16927</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1057.9375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <v>Clothing</v>
       </c>
       <c r="B20" t="str">
-        <v>Sunglasses</v>
+        <v>Tablet</v>
       </c>
       <c r="C20" s="7">
-        <v>17667</v>
+        <v>14032</v>
       </c>
       <c r="D20" s="7">
-        <v>1963</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="4">
-        <v>17667</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1169.3333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <v>Clothing</v>
       </c>
       <c r="B21" t="str">
-        <v>Tablet</v>
+        <v>T-shirt</v>
       </c>
       <c r="C21" s="7">
-        <v>14032</v>
+        <v>26417</v>
       </c>
       <c r="D21" s="7">
-        <v>1169.3333333333333</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4">
-        <v>14032</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1169.3333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1390.3684210526317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <v>Clothing</v>
       </c>
       <c r="B22" t="str">
-        <v>T-shirt</v>
+        <v>Watch</v>
       </c>
       <c r="C22" s="7">
-        <v>26417</v>
+        <v>17836</v>
       </c>
       <c r="D22" s="7">
-        <v>1390.3684210526317</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="4">
-        <v>26417</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1390.3684210526317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="B23" t="str">
-        <v>Watch</v>
+        <v>Camera</v>
       </c>
       <c r="C23" s="7">
-        <v>17836</v>
+        <v>24408</v>
       </c>
       <c r="D23" s="7">
-        <v>1372</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="4">
-        <v>17836</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1435.7647058823529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>Headphones</v>
       </c>
       <c r="C24" s="7">
-        <v>209136</v>
+        <v>14713</v>
       </c>
       <c r="D24" s="7">
-        <v>1432.4383561643835</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4">
-        <v>209136</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1432.4383561643835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1337.5454545454545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <v>Electronics</v>
       </c>
       <c r="B25" t="str">
-        <v>Camera</v>
+        <v>Jacket</v>
       </c>
       <c r="C25" s="7">
-        <v>24408</v>
+        <v>21740</v>
       </c>
       <c r="D25" s="7">
-        <v>1435.7647058823529</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="4">
-        <v>24408</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1435.7647058823529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1672.3076923076924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <v>Electronics</v>
       </c>
       <c r="B26" t="str">
-        <v>Headphones</v>
+        <v>Laptop</v>
       </c>
       <c r="C26" s="7">
-        <v>14713</v>
+        <v>34558</v>
       </c>
       <c r="D26" s="7">
-        <v>1337.5454545454545</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="4">
-        <v>14713</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1337.5454545454545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1645.6190476190477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <v>Electronics</v>
       </c>
       <c r="B27" t="str">
-        <v>Jacket</v>
+        <v>Shoes</v>
       </c>
       <c r="C27" s="7">
-        <v>21740</v>
+        <v>28657</v>
       </c>
       <c r="D27" s="7">
-        <v>1672.3076923076924</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="4">
-        <v>21740</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1672.3076923076924</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1592.0555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <v>Electronics</v>
       </c>
       <c r="B28" t="str">
-        <v>Laptop</v>
+        <v>Smartphone</v>
       </c>
       <c r="C28" s="7">
-        <v>34558</v>
+        <v>24014</v>
       </c>
       <c r="D28" s="7">
-        <v>1645.6190476190477</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="4">
-        <v>34558</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1645.6190476190477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1412.5882352941176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <v>Electronics</v>
       </c>
       <c r="B29" t="str">
-        <v>Shoes</v>
+        <v>Sunglasses</v>
       </c>
       <c r="C29" s="7">
-        <v>28657</v>
+        <v>21683</v>
       </c>
       <c r="D29" s="7">
-        <v>1592.0555555555557</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="4">
-        <v>28657</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1592.0555555555557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1548.7857142857142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <v>Electronics</v>
       </c>
       <c r="B30" t="str">
-        <v>Smartphone</v>
+        <v>Tablet</v>
       </c>
       <c r="C30" s="7">
-        <v>24014</v>
+        <v>20746</v>
       </c>
       <c r="D30" s="7">
-        <v>1412.5882352941176</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4">
-        <v>24014</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1412.5882352941176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1296.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <v>Electronics</v>
       </c>
       <c r="B31" t="str">
-        <v>Sunglasses</v>
+        <v>T-shirt</v>
       </c>
       <c r="C31" s="7">
-        <v>21683</v>
+        <v>28717</v>
       </c>
       <c r="D31" s="7">
-        <v>1548.7857142857142</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="4">
-        <v>21683</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1548.7857142857142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1914.4666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <v>Electronics</v>
       </c>
       <c r="B32" t="str">
-        <v>Tablet</v>
+        <v>Watch</v>
       </c>
       <c r="C32" s="7">
-        <v>20746</v>
+        <v>22843</v>
       </c>
       <c r="D32" s="7">
-        <v>1296.625</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4">
-        <v>20746</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1296.625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1757.1538461538462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
-        <v>Electronics</v>
+        <v>Total</v>
       </c>
       <c r="B33" t="str">
-        <v>T-shirt</v>
+        <v/>
       </c>
       <c r="C33" s="7">
-        <v>28717</v>
+        <v>731790</v>
       </c>
       <c r="D33" s="7">
-        <v>1914.4666666666667</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="4">
-        <v>28717</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1914.4666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Watch</v>
-      </c>
-      <c r="C34" s="7">
-        <v>22843</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1757.1538461538462</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="4">
-        <v>22843</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1757.1538461538462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="B35" t="str">
-        <v/>
-      </c>
-      <c r="C35" s="7">
-        <v>242079</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1561.8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="4">
-        <v>242079</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1561.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" t="str">
-        <v>Grand Total</v>
-      </c>
-      <c r="B36" t="str">
-        <v/>
-      </c>
-      <c r="C36" s="7">
-        <v>731790</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1463.58</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="4">
-        <v>731790</v>
-      </c>
-      <c r="I36" s="7">
         <v>1463.58</v>
       </c>
     </row>
